--- a/Report/德尔美客.xlsx
+++ b/Report/德尔美客.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="465" windowWidth="27405" windowHeight="16200" tabRatio="938" activeTab="15"/>
+    <workbookView xWindow="165" yWindow="465" windowWidth="27405" windowHeight="16200" tabRatio="938" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="关键指标" sheetId="1" r:id="rId1"/>
@@ -2967,6 +2967,12 @@
     <xf numFmtId="176" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3042,12 +3048,6 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3062,6 +3062,21 @@
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="76">
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -3177,12 +3192,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <font>
         <name val="微软雅黑"/>
       </font>
@@ -3198,19 +3207,10 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
+      <numFmt numFmtId="178" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
+      <numFmt numFmtId="178" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -17775,528 +17775,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="5"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="2">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U16:U17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item h="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="5"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="17">
-        <item x="15"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="45">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L6:M11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="247">
-        <item m="1" x="230"/>
-        <item m="1" x="209"/>
-        <item m="1" x="134"/>
-        <item m="1" x="112"/>
-        <item m="1" x="122"/>
-        <item m="1" x="177"/>
-        <item m="1" x="234"/>
-        <item m="1" x="157"/>
-        <item m="1" x="213"/>
-        <item m="1" x="138"/>
-        <item m="1" x="192"/>
-        <item m="1" x="116"/>
-        <item m="1" x="227"/>
-        <item m="1" x="206"/>
-        <item m="1" x="131"/>
-        <item m="1" x="186"/>
-        <item m="1" x="243"/>
-        <item m="1" x="166"/>
-        <item m="1" x="222"/>
-        <item m="1" x="147"/>
-        <item m="1" x="201"/>
-        <item m="1" x="126"/>
-        <item m="1" x="181"/>
-        <item m="1" x="238"/>
-        <item m="1" x="161"/>
-        <item m="1" x="217"/>
-        <item m="1" x="142"/>
-        <item m="1" x="196"/>
-        <item m="1" x="120"/>
-        <item m="1" x="176"/>
-        <item m="1" x="233"/>
-        <item m="1" x="156"/>
-        <item m="1" x="212"/>
-        <item m="1" x="137"/>
-        <item m="1" x="191"/>
-        <item m="1" x="115"/>
-        <item m="1" x="171"/>
-        <item m="1" x="226"/>
-        <item m="1" x="151"/>
-        <item m="1" x="205"/>
-        <item m="1" x="130"/>
-        <item m="1" x="184"/>
-        <item m="1" x="241"/>
-        <item m="1" x="164"/>
-        <item m="1" x="220"/>
-        <item m="1" x="145"/>
-        <item m="1" x="199"/>
-        <item m="1" x="124"/>
-        <item m="1" x="179"/>
-        <item m="1" x="236"/>
-        <item m="1" x="159"/>
-        <item m="1" x="215"/>
-        <item m="1" x="140"/>
-        <item m="1" x="194"/>
-        <item m="1" x="118"/>
-        <item m="1" x="174"/>
-        <item m="1" x="231"/>
-        <item m="1" x="154"/>
-        <item m="1" x="210"/>
-        <item m="1" x="135"/>
-        <item m="1" x="189"/>
-        <item m="1" x="113"/>
-        <item m="1" x="169"/>
-        <item m="1" x="198"/>
-        <item m="1" x="123"/>
-        <item m="1" x="178"/>
-        <item m="1" x="235"/>
-        <item m="1" x="158"/>
-        <item m="1" x="214"/>
-        <item m="1" x="139"/>
-        <item m="1" x="193"/>
-        <item m="1" x="117"/>
-        <item m="1" x="172"/>
-        <item m="1" x="228"/>
-        <item m="1" x="152"/>
-        <item m="1" x="207"/>
-        <item m="1" x="132"/>
-        <item m="1" x="187"/>
-        <item m="1" x="244"/>
-        <item m="1" x="167"/>
-        <item m="1" x="223"/>
-        <item m="1" x="148"/>
-        <item m="1" x="202"/>
-        <item m="1" x="127"/>
-        <item m="1" x="182"/>
-        <item m="1" x="239"/>
-        <item m="1" x="162"/>
-        <item m="1" x="218"/>
-        <item m="1" x="143"/>
-        <item m="1" x="197"/>
-        <item m="1" x="121"/>
-        <item m="1" x="185"/>
-        <item m="1" x="242"/>
-        <item m="1" x="165"/>
-        <item m="1" x="221"/>
-        <item m="1" x="146"/>
-        <item m="1" x="200"/>
-        <item m="1" x="125"/>
-        <item m="1" x="180"/>
-        <item m="1" x="237"/>
-        <item m="1" x="160"/>
-        <item m="1" x="216"/>
-        <item m="1" x="141"/>
-        <item m="1" x="195"/>
-        <item m="1" x="119"/>
-        <item m="1" x="175"/>
-        <item m="1" x="232"/>
-        <item m="1" x="155"/>
-        <item m="1" x="211"/>
-        <item m="1" x="136"/>
-        <item m="1" x="190"/>
-        <item m="1" x="114"/>
-        <item m="1" x="170"/>
-        <item m="1" x="225"/>
-        <item m="1" x="150"/>
-        <item m="1" x="204"/>
-        <item m="1" x="129"/>
-        <item m="1" x="183"/>
-        <item m="1" x="240"/>
-        <item m="1" x="163"/>
-        <item m="1" x="219"/>
-        <item m="1" x="144"/>
-        <item m="1" x="173"/>
-        <item m="1" x="229"/>
-        <item m="1" x="153"/>
-        <item m="1" x="208"/>
-        <item m="1" x="133"/>
-        <item m="1" x="188"/>
-        <item m="1" x="245"/>
-        <item m="1" x="168"/>
-        <item m="1" x="224"/>
-        <item m="1" x="149"/>
-        <item m="1" x="203"/>
-        <item m="1" x="128"/>
-        <item x="111"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="86"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="83"/>
-        <item x="82"/>
-        <item x="81"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
-    <i/>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="51">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表18" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A20:C38" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
@@ -18430,48 +17908,47 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O6:P8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="3">
+        <item h="1" x="1"/>
         <item x="0"/>
-        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
+      <items count="8">
+        <item h="1" x="5"/>
+        <item h="1" m="1" x="6"/>
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" x="2"/>
         <item h="1" x="3"/>
         <item x="4"/>
-        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="19">
-        <item x="17"/>
+      <items count="17">
+        <item x="15"/>
         <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
         <item x="12"/>
-        <item x="11"/>
         <item x="13"/>
         <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -18479,27 +17956,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="2">
+  <rowItems count="1">
     <i/>
-    <i t="grand"/>
   </rowItems>
   <colItems count="1">
     <i/>
@@ -18512,29 +17976,14 @@
   <dataFields count="1">
     <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="6">
-    <format dxfId="57">
+  <formats count="3">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -18542,941 +17991,38 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y17:AC18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U16:U17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
+      <items count="3">
         <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
+        <item h="1" x="5"/>
+        <item h="1" m="1" x="6"/>
         <item h="1" x="0"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="6"/>
         <item h="1" x="1"/>
-        <item h="1" m="1" x="5"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="144">
-        <item m="1" x="89"/>
-        <item m="1" x="7"/>
-        <item m="1" x="67"/>
-        <item m="1" x="127"/>
-        <item m="1" x="45"/>
-        <item m="1" x="106"/>
-        <item m="1" x="24"/>
-        <item m="1" x="83"/>
-        <item m="1" x="1"/>
-        <item m="1" x="94"/>
-        <item m="1" x="12"/>
-        <item m="1" x="71"/>
-        <item m="1" x="131"/>
-        <item m="1" x="49"/>
-        <item m="1" x="110"/>
-        <item m="1" x="28"/>
-        <item m="1" x="87"/>
-        <item m="1" x="5"/>
-        <item m="1" x="64"/>
-        <item m="1" x="124"/>
-        <item m="1" x="42"/>
-        <item m="1" x="103"/>
-        <item m="1" x="21"/>
-        <item m="1" x="80"/>
-        <item m="1" x="140"/>
-        <item m="1" x="58"/>
-        <item m="1" x="119"/>
-        <item m="1" x="37"/>
-        <item m="1" x="98"/>
-        <item m="1" x="16"/>
-        <item m="1" x="75"/>
-        <item m="1" x="135"/>
-        <item m="1" x="53"/>
-        <item m="1" x="114"/>
-        <item m="1" x="32"/>
-        <item m="1" x="92"/>
-        <item m="1" x="10"/>
-        <item m="1" x="70"/>
-        <item m="1" x="130"/>
-        <item m="1" x="48"/>
-        <item m="1" x="109"/>
-        <item m="1" x="27"/>
-        <item m="1" x="86"/>
-        <item m="1" x="4"/>
-        <item m="1" x="63"/>
-        <item m="1" x="123"/>
-        <item m="1" x="41"/>
-        <item m="1" x="102"/>
-        <item m="1" x="20"/>
-        <item m="1" x="78"/>
-        <item m="1" x="138"/>
-        <item m="1" x="56"/>
-        <item m="1" x="117"/>
-        <item m="1" x="35"/>
-        <item m="1" x="96"/>
-        <item m="1" x="14"/>
-        <item m="1" x="73"/>
-        <item m="1" x="133"/>
-        <item m="1" x="51"/>
-        <item m="1" x="112"/>
-        <item m="1" x="30"/>
-        <item m="1" x="90"/>
-        <item m="1" x="8"/>
-        <item m="1" x="68"/>
-        <item m="1" x="128"/>
-        <item m="1" x="46"/>
-        <item m="1" x="107"/>
-        <item m="1" x="25"/>
-        <item m="1" x="84"/>
-        <item m="1" x="2"/>
-        <item m="1" x="61"/>
-        <item m="1" x="95"/>
-        <item m="1" x="13"/>
-        <item m="1" x="72"/>
-        <item m="1" x="132"/>
-        <item m="1" x="50"/>
-        <item m="1" x="111"/>
-        <item m="1" x="29"/>
-        <item m="1" x="88"/>
-        <item m="1" x="6"/>
-        <item m="1" x="65"/>
-        <item m="1" x="125"/>
-        <item m="1" x="43"/>
-        <item m="1" x="104"/>
-        <item m="1" x="22"/>
-        <item m="1" x="81"/>
-        <item m="1" x="141"/>
-        <item m="1" x="59"/>
-        <item m="1" x="120"/>
-        <item m="1" x="38"/>
-        <item m="1" x="99"/>
-        <item m="1" x="17"/>
-        <item m="1" x="76"/>
-        <item m="1" x="136"/>
-        <item m="1" x="54"/>
-        <item m="1" x="115"/>
-        <item m="1" x="33"/>
-        <item m="1" x="93"/>
-        <item m="1" x="11"/>
-        <item m="1" x="79"/>
-        <item m="1" x="139"/>
-        <item m="1" x="57"/>
-        <item m="1" x="118"/>
-        <item m="1" x="36"/>
-        <item m="1" x="97"/>
-        <item m="1" x="15"/>
-        <item m="1" x="74"/>
-        <item m="1" x="134"/>
-        <item m="1" x="52"/>
-        <item m="1" x="113"/>
-        <item m="1" x="31"/>
-        <item m="1" x="91"/>
-        <item m="1" x="9"/>
+      <items count="17">
+        <item x="15"/>
         <item x="0"/>
-        <item m="1" x="69"/>
-        <item m="1" x="129"/>
-        <item m="1" x="47"/>
-        <item m="1" x="108"/>
-        <item m="1" x="26"/>
-        <item m="1" x="85"/>
-        <item m="1" x="3"/>
-        <item m="1" x="62"/>
-        <item m="1" x="122"/>
-        <item m="1" x="40"/>
-        <item m="1" x="101"/>
-        <item m="1" x="19"/>
-        <item m="1" x="77"/>
-        <item m="1" x="137"/>
-        <item m="1" x="55"/>
-        <item m="1" x="116"/>
-        <item m="1" x="34"/>
-        <item m="1" x="66"/>
-        <item m="1" x="126"/>
-        <item m="1" x="44"/>
-        <item m="1" x="105"/>
-        <item m="1" x="23"/>
-        <item m="1" x="82"/>
-        <item m="1" x="142"/>
-        <item m="1" x="60"/>
-        <item m="1" x="121"/>
-        <item m="1" x="39"/>
-        <item m="1" x="100"/>
-        <item m="1" x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="61">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="60">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I6:J11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="247">
-        <item m="1" x="230"/>
-        <item m="1" x="209"/>
-        <item m="1" x="134"/>
-        <item m="1" x="112"/>
-        <item m="1" x="122"/>
-        <item m="1" x="177"/>
-        <item m="1" x="234"/>
-        <item m="1" x="157"/>
-        <item m="1" x="213"/>
-        <item m="1" x="138"/>
-        <item m="1" x="192"/>
-        <item m="1" x="116"/>
-        <item m="1" x="227"/>
-        <item m="1" x="206"/>
-        <item m="1" x="131"/>
-        <item m="1" x="186"/>
-        <item m="1" x="243"/>
-        <item m="1" x="166"/>
-        <item m="1" x="222"/>
-        <item m="1" x="147"/>
-        <item m="1" x="201"/>
-        <item m="1" x="126"/>
-        <item m="1" x="181"/>
-        <item m="1" x="238"/>
-        <item m="1" x="161"/>
-        <item m="1" x="217"/>
-        <item m="1" x="142"/>
-        <item m="1" x="196"/>
-        <item m="1" x="120"/>
-        <item m="1" x="176"/>
-        <item m="1" x="233"/>
-        <item m="1" x="156"/>
-        <item m="1" x="212"/>
-        <item m="1" x="137"/>
-        <item m="1" x="191"/>
-        <item m="1" x="115"/>
-        <item m="1" x="171"/>
-        <item m="1" x="226"/>
-        <item m="1" x="151"/>
-        <item m="1" x="205"/>
-        <item m="1" x="130"/>
-        <item m="1" x="184"/>
-        <item m="1" x="241"/>
-        <item m="1" x="164"/>
-        <item m="1" x="220"/>
-        <item m="1" x="145"/>
-        <item m="1" x="199"/>
-        <item m="1" x="124"/>
-        <item m="1" x="179"/>
-        <item m="1" x="236"/>
-        <item m="1" x="159"/>
-        <item m="1" x="215"/>
-        <item m="1" x="140"/>
-        <item m="1" x="194"/>
-        <item m="1" x="118"/>
-        <item m="1" x="174"/>
-        <item m="1" x="231"/>
-        <item m="1" x="154"/>
-        <item m="1" x="210"/>
-        <item m="1" x="135"/>
-        <item m="1" x="189"/>
-        <item m="1" x="113"/>
-        <item m="1" x="169"/>
-        <item m="1" x="198"/>
-        <item m="1" x="123"/>
-        <item m="1" x="178"/>
-        <item m="1" x="235"/>
-        <item m="1" x="158"/>
-        <item m="1" x="214"/>
-        <item m="1" x="139"/>
-        <item m="1" x="193"/>
-        <item m="1" x="117"/>
-        <item m="1" x="172"/>
-        <item m="1" x="228"/>
-        <item m="1" x="152"/>
-        <item m="1" x="207"/>
-        <item m="1" x="132"/>
-        <item m="1" x="187"/>
-        <item m="1" x="244"/>
-        <item m="1" x="167"/>
-        <item m="1" x="223"/>
-        <item m="1" x="148"/>
-        <item m="1" x="202"/>
-        <item m="1" x="127"/>
-        <item m="1" x="182"/>
-        <item m="1" x="239"/>
-        <item m="1" x="162"/>
-        <item m="1" x="218"/>
-        <item m="1" x="143"/>
-        <item m="1" x="197"/>
-        <item m="1" x="121"/>
-        <item m="1" x="185"/>
-        <item m="1" x="242"/>
-        <item m="1" x="165"/>
-        <item m="1" x="221"/>
-        <item m="1" x="146"/>
-        <item m="1" x="200"/>
-        <item m="1" x="125"/>
-        <item m="1" x="180"/>
-        <item m="1" x="237"/>
-        <item m="1" x="160"/>
-        <item m="1" x="216"/>
-        <item m="1" x="141"/>
-        <item m="1" x="195"/>
-        <item m="1" x="119"/>
-        <item m="1" x="175"/>
-        <item m="1" x="232"/>
-        <item m="1" x="155"/>
-        <item m="1" x="211"/>
-        <item m="1" x="136"/>
-        <item m="1" x="190"/>
-        <item m="1" x="114"/>
-        <item m="1" x="170"/>
-        <item m="1" x="225"/>
-        <item m="1" x="150"/>
-        <item m="1" x="204"/>
-        <item m="1" x="129"/>
-        <item m="1" x="183"/>
-        <item m="1" x="240"/>
-        <item m="1" x="163"/>
-        <item m="1" x="219"/>
-        <item m="1" x="144"/>
-        <item m="1" x="173"/>
-        <item m="1" x="229"/>
-        <item m="1" x="153"/>
-        <item m="1" x="208"/>
-        <item m="1" x="133"/>
-        <item m="1" x="188"/>
-        <item m="1" x="245"/>
-        <item m="1" x="168"/>
-        <item m="1" x="224"/>
-        <item m="1" x="149"/>
-        <item m="1" x="203"/>
-        <item m="1" x="128"/>
-        <item x="111"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
         <item x="5"/>
         <item x="4"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="76"/>
-        <item x="75"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="86"/>
-        <item x="85"/>
-        <item x="84"/>
-        <item x="83"/>
-        <item x="82"/>
-        <item x="81"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="0"/>
-        <item m="1" x="6"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="5">
-    <i/>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="8">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="Y6:AC7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="1"/>
-        <item m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="144">
-        <item m="1" x="89"/>
-        <item m="1" x="7"/>
-        <item m="1" x="67"/>
-        <item m="1" x="127"/>
-        <item m="1" x="45"/>
-        <item m="1" x="106"/>
-        <item m="1" x="24"/>
-        <item m="1" x="83"/>
-        <item m="1" x="1"/>
-        <item m="1" x="94"/>
-        <item m="1" x="12"/>
-        <item m="1" x="71"/>
-        <item m="1" x="131"/>
-        <item m="1" x="49"/>
-        <item m="1" x="110"/>
-        <item m="1" x="28"/>
-        <item m="1" x="87"/>
-        <item m="1" x="5"/>
-        <item m="1" x="64"/>
-        <item m="1" x="124"/>
-        <item m="1" x="42"/>
-        <item m="1" x="103"/>
-        <item m="1" x="21"/>
-        <item m="1" x="80"/>
-        <item m="1" x="140"/>
-        <item m="1" x="58"/>
-        <item m="1" x="119"/>
-        <item m="1" x="37"/>
-        <item m="1" x="98"/>
-        <item m="1" x="16"/>
-        <item m="1" x="75"/>
-        <item m="1" x="135"/>
-        <item m="1" x="53"/>
-        <item m="1" x="114"/>
-        <item m="1" x="32"/>
-        <item m="1" x="92"/>
-        <item m="1" x="10"/>
-        <item m="1" x="70"/>
-        <item m="1" x="130"/>
-        <item m="1" x="48"/>
-        <item m="1" x="109"/>
-        <item m="1" x="27"/>
-        <item m="1" x="86"/>
-        <item m="1" x="4"/>
-        <item m="1" x="63"/>
-        <item m="1" x="123"/>
-        <item m="1" x="41"/>
-        <item m="1" x="102"/>
-        <item m="1" x="20"/>
-        <item m="1" x="78"/>
-        <item m="1" x="138"/>
-        <item m="1" x="56"/>
-        <item m="1" x="117"/>
-        <item m="1" x="35"/>
-        <item m="1" x="96"/>
-        <item m="1" x="14"/>
-        <item m="1" x="73"/>
-        <item m="1" x="133"/>
-        <item m="1" x="51"/>
-        <item m="1" x="112"/>
-        <item m="1" x="30"/>
-        <item m="1" x="90"/>
-        <item m="1" x="8"/>
-        <item m="1" x="68"/>
-        <item m="1" x="128"/>
-        <item m="1" x="46"/>
-        <item m="1" x="107"/>
-        <item m="1" x="25"/>
-        <item m="1" x="84"/>
-        <item m="1" x="2"/>
-        <item m="1" x="61"/>
-        <item m="1" x="95"/>
-        <item m="1" x="13"/>
-        <item m="1" x="72"/>
-        <item m="1" x="132"/>
-        <item m="1" x="50"/>
-        <item m="1" x="111"/>
-        <item m="1" x="29"/>
-        <item m="1" x="88"/>
-        <item m="1" x="6"/>
-        <item m="1" x="65"/>
-        <item m="1" x="125"/>
-        <item m="1" x="43"/>
-        <item m="1" x="104"/>
-        <item m="1" x="22"/>
-        <item m="1" x="81"/>
-        <item m="1" x="141"/>
-        <item m="1" x="59"/>
-        <item m="1" x="120"/>
-        <item m="1" x="38"/>
-        <item m="1" x="99"/>
-        <item m="1" x="17"/>
-        <item m="1" x="76"/>
-        <item m="1" x="136"/>
-        <item m="1" x="54"/>
-        <item m="1" x="115"/>
-        <item m="1" x="33"/>
-        <item m="1" x="93"/>
-        <item m="1" x="11"/>
-        <item m="1" x="79"/>
-        <item m="1" x="139"/>
-        <item m="1" x="57"/>
-        <item m="1" x="118"/>
-        <item m="1" x="36"/>
-        <item m="1" x="97"/>
-        <item m="1" x="15"/>
-        <item m="1" x="74"/>
-        <item m="1" x="134"/>
-        <item m="1" x="52"/>
-        <item m="1" x="113"/>
-        <item m="1" x="31"/>
-        <item m="1" x="91"/>
-        <item m="1" x="9"/>
-        <item x="0"/>
-        <item m="1" x="69"/>
-        <item m="1" x="129"/>
-        <item m="1" x="47"/>
-        <item m="1" x="108"/>
-        <item m="1" x="26"/>
-        <item m="1" x="85"/>
-        <item m="1" x="3"/>
-        <item m="1" x="62"/>
-        <item m="1" x="122"/>
-        <item m="1" x="40"/>
-        <item m="1" x="101"/>
-        <item m="1" x="19"/>
-        <item m="1" x="77"/>
-        <item m="1" x="137"/>
-        <item m="1" x="55"/>
-        <item m="1" x="116"/>
-        <item m="1" x="34"/>
-        <item m="1" x="66"/>
-        <item m="1" x="126"/>
-        <item m="1" x="44"/>
-        <item m="1" x="105"/>
-        <item m="1" x="23"/>
-        <item m="1" x="82"/>
-        <item m="1" x="142"/>
-        <item m="1" x="60"/>
-        <item m="1" x="121"/>
-        <item m="1" x="39"/>
-        <item m="1" x="100"/>
-        <item m="1" x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A16:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" m="1" x="7"/>
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="206">
-        <item m="1" x="170"/>
-        <item m="1" x="185"/>
-        <item m="1" x="200"/>
-        <item m="1" x="180"/>
-        <item m="1" x="195"/>
-        <item m="1" x="175"/>
-        <item m="1" x="190"/>
-        <item m="1" x="204"/>
-        <item m="1" x="184"/>
-        <item m="1" x="199"/>
-        <item m="1" x="179"/>
-        <item m="1" x="194"/>
-        <item m="1" x="174"/>
-        <item m="1" x="188"/>
-        <item m="1" x="202"/>
-        <item m="1" x="182"/>
-        <item m="1" x="197"/>
-        <item m="1" x="177"/>
-        <item m="1" x="192"/>
-        <item m="1" x="172"/>
-        <item m="1" x="189"/>
-        <item m="1" x="203"/>
-        <item m="1" x="183"/>
-        <item m="1" x="198"/>
-        <item m="1" x="178"/>
-        <item m="1" x="193"/>
-        <item m="1" x="173"/>
-        <item m="1" x="187"/>
-        <item m="1" x="201"/>
-        <item m="1" x="181"/>
-        <item m="1" x="196"/>
-        <item m="1" x="176"/>
-        <item m="1" x="191"/>
-        <item m="1" x="171"/>
-        <item m="1" x="186"/>
-        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="169"/>
-        <item x="4"/>
-        <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
@@ -19486,266 +18032,14 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="73"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="70"/>
-        <item x="69"/>
-        <item x="68"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="144"/>
-        <item x="143"/>
-        <item x="142"/>
-        <item x="141"/>
-        <item x="140"/>
-        <item x="139"/>
-        <item x="138"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="156"/>
-        <item x="155"/>
-        <item x="154"/>
-        <item x="160"/>
-        <item x="159"/>
-        <item x="158"/>
-        <item x="157"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
-    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
-    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
-    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="15">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F16:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -19757,21 +18051,22 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="2">
+  <pageFields count="3">
     <pageField fld="0" hier="-1"/>
     <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="20">
+    <format dxfId="43">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -19779,390 +18074,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A6:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="16">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="9">
-        <item h="1" m="1" x="7"/>
-        <item h="1" x="0"/>
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="206">
-        <item m="1" x="170"/>
-        <item m="1" x="185"/>
-        <item m="1" x="200"/>
-        <item m="1" x="180"/>
-        <item m="1" x="195"/>
-        <item m="1" x="175"/>
-        <item m="1" x="190"/>
-        <item m="1" x="204"/>
-        <item m="1" x="184"/>
-        <item m="1" x="199"/>
-        <item m="1" x="179"/>
-        <item m="1" x="194"/>
-        <item m="1" x="174"/>
-        <item m="1" x="188"/>
-        <item m="1" x="202"/>
-        <item m="1" x="182"/>
-        <item m="1" x="197"/>
-        <item m="1" x="177"/>
-        <item m="1" x="192"/>
-        <item m="1" x="172"/>
-        <item m="1" x="189"/>
-        <item m="1" x="203"/>
-        <item m="1" x="183"/>
-        <item m="1" x="198"/>
-        <item m="1" x="178"/>
-        <item m="1" x="193"/>
-        <item m="1" x="173"/>
-        <item m="1" x="187"/>
-        <item m="1" x="201"/>
-        <item m="1" x="181"/>
-        <item m="1" x="196"/>
-        <item m="1" x="176"/>
-        <item m="1" x="191"/>
-        <item m="1" x="171"/>
-        <item m="1" x="186"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="169"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="61"/>
-        <item x="73"/>
-        <item x="72"/>
-        <item x="71"/>
-        <item x="70"/>
-        <item x="69"/>
-        <item x="68"/>
-        <item x="67"/>
-        <item x="66"/>
-        <item x="65"/>
-        <item x="64"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="144"/>
-        <item x="143"/>
-        <item x="142"/>
-        <item x="141"/>
-        <item x="140"/>
-        <item x="139"/>
-        <item x="138"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="156"/>
-        <item x="155"/>
-        <item x="154"/>
-        <item x="160"/>
-        <item x="159"/>
-        <item x="158"/>
-        <item x="157"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="4">
-    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
-    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
-    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
-    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="25">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F6:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" m="1" x="2"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="11">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="28">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="AE2:AI19" firstHeaderRow="1" firstDataRow="4" firstDataCol="1"/>
   <pivotFields count="15">
@@ -20679,25 +18591,25 @@
     <dataField name="求和项:成交价" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="36">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="49">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="48">
       <pivotArea field="-2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="47">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="46">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -20706,7 +18618,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -20714,7 +18626,1663 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I6:J11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="247">
+        <item m="1" x="230"/>
+        <item m="1" x="209"/>
+        <item m="1" x="134"/>
+        <item m="1" x="112"/>
+        <item m="1" x="122"/>
+        <item m="1" x="177"/>
+        <item m="1" x="234"/>
+        <item m="1" x="157"/>
+        <item m="1" x="213"/>
+        <item m="1" x="138"/>
+        <item m="1" x="192"/>
+        <item m="1" x="116"/>
+        <item m="1" x="227"/>
+        <item m="1" x="206"/>
+        <item m="1" x="131"/>
+        <item m="1" x="186"/>
+        <item m="1" x="243"/>
+        <item m="1" x="166"/>
+        <item m="1" x="222"/>
+        <item m="1" x="147"/>
+        <item m="1" x="201"/>
+        <item m="1" x="126"/>
+        <item m="1" x="181"/>
+        <item m="1" x="238"/>
+        <item m="1" x="161"/>
+        <item m="1" x="217"/>
+        <item m="1" x="142"/>
+        <item m="1" x="196"/>
+        <item m="1" x="120"/>
+        <item m="1" x="176"/>
+        <item m="1" x="233"/>
+        <item m="1" x="156"/>
+        <item m="1" x="212"/>
+        <item m="1" x="137"/>
+        <item m="1" x="191"/>
+        <item m="1" x="115"/>
+        <item m="1" x="171"/>
+        <item m="1" x="226"/>
+        <item m="1" x="151"/>
+        <item m="1" x="205"/>
+        <item m="1" x="130"/>
+        <item m="1" x="184"/>
+        <item m="1" x="241"/>
+        <item m="1" x="164"/>
+        <item m="1" x="220"/>
+        <item m="1" x="145"/>
+        <item m="1" x="199"/>
+        <item m="1" x="124"/>
+        <item m="1" x="179"/>
+        <item m="1" x="236"/>
+        <item m="1" x="159"/>
+        <item m="1" x="215"/>
+        <item m="1" x="140"/>
+        <item m="1" x="194"/>
+        <item m="1" x="118"/>
+        <item m="1" x="174"/>
+        <item m="1" x="231"/>
+        <item m="1" x="154"/>
+        <item m="1" x="210"/>
+        <item m="1" x="135"/>
+        <item m="1" x="189"/>
+        <item m="1" x="113"/>
+        <item m="1" x="169"/>
+        <item m="1" x="198"/>
+        <item m="1" x="123"/>
+        <item m="1" x="178"/>
+        <item m="1" x="235"/>
+        <item m="1" x="158"/>
+        <item m="1" x="214"/>
+        <item m="1" x="139"/>
+        <item m="1" x="193"/>
+        <item m="1" x="117"/>
+        <item m="1" x="172"/>
+        <item m="1" x="228"/>
+        <item m="1" x="152"/>
+        <item m="1" x="207"/>
+        <item m="1" x="132"/>
+        <item m="1" x="187"/>
+        <item m="1" x="244"/>
+        <item m="1" x="167"/>
+        <item m="1" x="223"/>
+        <item m="1" x="148"/>
+        <item m="1" x="202"/>
+        <item m="1" x="127"/>
+        <item m="1" x="182"/>
+        <item m="1" x="239"/>
+        <item m="1" x="162"/>
+        <item m="1" x="218"/>
+        <item m="1" x="143"/>
+        <item m="1" x="197"/>
+        <item m="1" x="121"/>
+        <item m="1" x="185"/>
+        <item m="1" x="242"/>
+        <item m="1" x="165"/>
+        <item m="1" x="221"/>
+        <item m="1" x="146"/>
+        <item m="1" x="200"/>
+        <item m="1" x="125"/>
+        <item m="1" x="180"/>
+        <item m="1" x="237"/>
+        <item m="1" x="160"/>
+        <item m="1" x="216"/>
+        <item m="1" x="141"/>
+        <item m="1" x="195"/>
+        <item m="1" x="119"/>
+        <item m="1" x="175"/>
+        <item m="1" x="232"/>
+        <item m="1" x="155"/>
+        <item m="1" x="211"/>
+        <item m="1" x="136"/>
+        <item m="1" x="190"/>
+        <item m="1" x="114"/>
+        <item m="1" x="170"/>
+        <item m="1" x="225"/>
+        <item m="1" x="150"/>
+        <item m="1" x="204"/>
+        <item m="1" x="129"/>
+        <item m="1" x="183"/>
+        <item m="1" x="240"/>
+        <item m="1" x="163"/>
+        <item m="1" x="219"/>
+        <item m="1" x="144"/>
+        <item m="1" x="173"/>
+        <item m="1" x="229"/>
+        <item m="1" x="153"/>
+        <item m="1" x="208"/>
+        <item m="1" x="133"/>
+        <item m="1" x="188"/>
+        <item m="1" x="245"/>
+        <item m="1" x="168"/>
+        <item m="1" x="224"/>
+        <item m="1" x="149"/>
+        <item m="1" x="203"/>
+        <item m="1" x="128"/>
+        <item x="111"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i/>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="57">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y17:AC18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="144">
+        <item m="1" x="89"/>
+        <item m="1" x="7"/>
+        <item m="1" x="67"/>
+        <item m="1" x="127"/>
+        <item m="1" x="45"/>
+        <item m="1" x="106"/>
+        <item m="1" x="24"/>
+        <item m="1" x="83"/>
+        <item m="1" x="1"/>
+        <item m="1" x="94"/>
+        <item m="1" x="12"/>
+        <item m="1" x="71"/>
+        <item m="1" x="131"/>
+        <item m="1" x="49"/>
+        <item m="1" x="110"/>
+        <item m="1" x="28"/>
+        <item m="1" x="87"/>
+        <item m="1" x="5"/>
+        <item m="1" x="64"/>
+        <item m="1" x="124"/>
+        <item m="1" x="42"/>
+        <item m="1" x="103"/>
+        <item m="1" x="21"/>
+        <item m="1" x="80"/>
+        <item m="1" x="140"/>
+        <item m="1" x="58"/>
+        <item m="1" x="119"/>
+        <item m="1" x="37"/>
+        <item m="1" x="98"/>
+        <item m="1" x="16"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="53"/>
+        <item m="1" x="114"/>
+        <item m="1" x="32"/>
+        <item m="1" x="92"/>
+        <item m="1" x="10"/>
+        <item m="1" x="70"/>
+        <item m="1" x="130"/>
+        <item m="1" x="48"/>
+        <item m="1" x="109"/>
+        <item m="1" x="27"/>
+        <item m="1" x="86"/>
+        <item m="1" x="4"/>
+        <item m="1" x="63"/>
+        <item m="1" x="123"/>
+        <item m="1" x="41"/>
+        <item m="1" x="102"/>
+        <item m="1" x="20"/>
+        <item m="1" x="78"/>
+        <item m="1" x="138"/>
+        <item m="1" x="56"/>
+        <item m="1" x="117"/>
+        <item m="1" x="35"/>
+        <item m="1" x="96"/>
+        <item m="1" x="14"/>
+        <item m="1" x="73"/>
+        <item m="1" x="133"/>
+        <item m="1" x="51"/>
+        <item m="1" x="112"/>
+        <item m="1" x="30"/>
+        <item m="1" x="90"/>
+        <item m="1" x="8"/>
+        <item m="1" x="68"/>
+        <item m="1" x="128"/>
+        <item m="1" x="46"/>
+        <item m="1" x="107"/>
+        <item m="1" x="25"/>
+        <item m="1" x="84"/>
+        <item m="1" x="2"/>
+        <item m="1" x="61"/>
+        <item m="1" x="95"/>
+        <item m="1" x="13"/>
+        <item m="1" x="72"/>
+        <item m="1" x="132"/>
+        <item m="1" x="50"/>
+        <item m="1" x="111"/>
+        <item m="1" x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="6"/>
+        <item m="1" x="65"/>
+        <item m="1" x="125"/>
+        <item m="1" x="43"/>
+        <item m="1" x="104"/>
+        <item m="1" x="22"/>
+        <item m="1" x="81"/>
+        <item m="1" x="141"/>
+        <item m="1" x="59"/>
+        <item m="1" x="120"/>
+        <item m="1" x="38"/>
+        <item m="1" x="99"/>
+        <item m="1" x="17"/>
+        <item m="1" x="76"/>
+        <item m="1" x="136"/>
+        <item m="1" x="54"/>
+        <item m="1" x="115"/>
+        <item m="1" x="33"/>
+        <item m="1" x="93"/>
+        <item m="1" x="11"/>
+        <item m="1" x="79"/>
+        <item m="1" x="139"/>
+        <item m="1" x="57"/>
+        <item m="1" x="118"/>
+        <item m="1" x="36"/>
+        <item m="1" x="97"/>
+        <item m="1" x="15"/>
+        <item m="1" x="74"/>
+        <item m="1" x="134"/>
+        <item m="1" x="52"/>
+        <item m="1" x="113"/>
+        <item m="1" x="31"/>
+        <item m="1" x="91"/>
+        <item m="1" x="9"/>
+        <item x="0"/>
+        <item m="1" x="69"/>
+        <item m="1" x="129"/>
+        <item m="1" x="47"/>
+        <item m="1" x="108"/>
+        <item m="1" x="26"/>
+        <item m="1" x="85"/>
+        <item m="1" x="3"/>
+        <item m="1" x="62"/>
+        <item m="1" x="122"/>
+        <item m="1" x="40"/>
+        <item m="1" x="101"/>
+        <item m="1" x="19"/>
+        <item m="1" x="77"/>
+        <item m="1" x="137"/>
+        <item m="1" x="55"/>
+        <item m="1" x="116"/>
+        <item m="1" x="34"/>
+        <item m="1" x="66"/>
+        <item m="1" x="126"/>
+        <item m="1" x="44"/>
+        <item m="1" x="105"/>
+        <item m="1" x="23"/>
+        <item m="1" x="82"/>
+        <item m="1" x="142"/>
+        <item m="1" x="60"/>
+        <item m="1" x="121"/>
+        <item m="1" x="39"/>
+        <item m="1" x="100"/>
+        <item m="1" x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="61">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F16:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F6:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="11">
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="5">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L6:M11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" m="1" x="2"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="247">
+        <item m="1" x="230"/>
+        <item m="1" x="209"/>
+        <item m="1" x="134"/>
+        <item m="1" x="112"/>
+        <item m="1" x="122"/>
+        <item m="1" x="177"/>
+        <item m="1" x="234"/>
+        <item m="1" x="157"/>
+        <item m="1" x="213"/>
+        <item m="1" x="138"/>
+        <item m="1" x="192"/>
+        <item m="1" x="116"/>
+        <item m="1" x="227"/>
+        <item m="1" x="206"/>
+        <item m="1" x="131"/>
+        <item m="1" x="186"/>
+        <item m="1" x="243"/>
+        <item m="1" x="166"/>
+        <item m="1" x="222"/>
+        <item m="1" x="147"/>
+        <item m="1" x="201"/>
+        <item m="1" x="126"/>
+        <item m="1" x="181"/>
+        <item m="1" x="238"/>
+        <item m="1" x="161"/>
+        <item m="1" x="217"/>
+        <item m="1" x="142"/>
+        <item m="1" x="196"/>
+        <item m="1" x="120"/>
+        <item m="1" x="176"/>
+        <item m="1" x="233"/>
+        <item m="1" x="156"/>
+        <item m="1" x="212"/>
+        <item m="1" x="137"/>
+        <item m="1" x="191"/>
+        <item m="1" x="115"/>
+        <item m="1" x="171"/>
+        <item m="1" x="226"/>
+        <item m="1" x="151"/>
+        <item m="1" x="205"/>
+        <item m="1" x="130"/>
+        <item m="1" x="184"/>
+        <item m="1" x="241"/>
+        <item m="1" x="164"/>
+        <item m="1" x="220"/>
+        <item m="1" x="145"/>
+        <item m="1" x="199"/>
+        <item m="1" x="124"/>
+        <item m="1" x="179"/>
+        <item m="1" x="236"/>
+        <item m="1" x="159"/>
+        <item m="1" x="215"/>
+        <item m="1" x="140"/>
+        <item m="1" x="194"/>
+        <item m="1" x="118"/>
+        <item m="1" x="174"/>
+        <item m="1" x="231"/>
+        <item m="1" x="154"/>
+        <item m="1" x="210"/>
+        <item m="1" x="135"/>
+        <item m="1" x="189"/>
+        <item m="1" x="113"/>
+        <item m="1" x="169"/>
+        <item m="1" x="198"/>
+        <item m="1" x="123"/>
+        <item m="1" x="178"/>
+        <item m="1" x="235"/>
+        <item m="1" x="158"/>
+        <item m="1" x="214"/>
+        <item m="1" x="139"/>
+        <item m="1" x="193"/>
+        <item m="1" x="117"/>
+        <item m="1" x="172"/>
+        <item m="1" x="228"/>
+        <item m="1" x="152"/>
+        <item m="1" x="207"/>
+        <item m="1" x="132"/>
+        <item m="1" x="187"/>
+        <item m="1" x="244"/>
+        <item m="1" x="167"/>
+        <item m="1" x="223"/>
+        <item m="1" x="148"/>
+        <item m="1" x="202"/>
+        <item m="1" x="127"/>
+        <item m="1" x="182"/>
+        <item m="1" x="239"/>
+        <item m="1" x="162"/>
+        <item m="1" x="218"/>
+        <item m="1" x="143"/>
+        <item m="1" x="197"/>
+        <item m="1" x="121"/>
+        <item m="1" x="185"/>
+        <item m="1" x="242"/>
+        <item m="1" x="165"/>
+        <item m="1" x="221"/>
+        <item m="1" x="146"/>
+        <item m="1" x="200"/>
+        <item m="1" x="125"/>
+        <item m="1" x="180"/>
+        <item m="1" x="237"/>
+        <item m="1" x="160"/>
+        <item m="1" x="216"/>
+        <item m="1" x="141"/>
+        <item m="1" x="195"/>
+        <item m="1" x="119"/>
+        <item m="1" x="175"/>
+        <item m="1" x="232"/>
+        <item m="1" x="155"/>
+        <item m="1" x="211"/>
+        <item m="1" x="136"/>
+        <item m="1" x="190"/>
+        <item m="1" x="114"/>
+        <item m="1" x="170"/>
+        <item m="1" x="225"/>
+        <item m="1" x="150"/>
+        <item m="1" x="204"/>
+        <item m="1" x="129"/>
+        <item m="1" x="183"/>
+        <item m="1" x="240"/>
+        <item m="1" x="163"/>
+        <item m="1" x="219"/>
+        <item m="1" x="144"/>
+        <item m="1" x="173"/>
+        <item m="1" x="229"/>
+        <item m="1" x="153"/>
+        <item m="1" x="208"/>
+        <item m="1" x="133"/>
+        <item m="1" x="188"/>
+        <item m="1" x="245"/>
+        <item m="1" x="168"/>
+        <item m="1" x="224"/>
+        <item m="1" x="149"/>
+        <item m="1" x="203"/>
+        <item m="1" x="128"/>
+        <item x="111"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="76"/>
+        <item x="75"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="83"/>
+        <item x="82"/>
+        <item x="81"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="4"/>
+        <item x="0"/>
+        <item m="1" x="6"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="5">
+    <i/>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="Y6:AC7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" x="1"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="144">
+        <item m="1" x="89"/>
+        <item m="1" x="7"/>
+        <item m="1" x="67"/>
+        <item m="1" x="127"/>
+        <item m="1" x="45"/>
+        <item m="1" x="106"/>
+        <item m="1" x="24"/>
+        <item m="1" x="83"/>
+        <item m="1" x="1"/>
+        <item m="1" x="94"/>
+        <item m="1" x="12"/>
+        <item m="1" x="71"/>
+        <item m="1" x="131"/>
+        <item m="1" x="49"/>
+        <item m="1" x="110"/>
+        <item m="1" x="28"/>
+        <item m="1" x="87"/>
+        <item m="1" x="5"/>
+        <item m="1" x="64"/>
+        <item m="1" x="124"/>
+        <item m="1" x="42"/>
+        <item m="1" x="103"/>
+        <item m="1" x="21"/>
+        <item m="1" x="80"/>
+        <item m="1" x="140"/>
+        <item m="1" x="58"/>
+        <item m="1" x="119"/>
+        <item m="1" x="37"/>
+        <item m="1" x="98"/>
+        <item m="1" x="16"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="53"/>
+        <item m="1" x="114"/>
+        <item m="1" x="32"/>
+        <item m="1" x="92"/>
+        <item m="1" x="10"/>
+        <item m="1" x="70"/>
+        <item m="1" x="130"/>
+        <item m="1" x="48"/>
+        <item m="1" x="109"/>
+        <item m="1" x="27"/>
+        <item m="1" x="86"/>
+        <item m="1" x="4"/>
+        <item m="1" x="63"/>
+        <item m="1" x="123"/>
+        <item m="1" x="41"/>
+        <item m="1" x="102"/>
+        <item m="1" x="20"/>
+        <item m="1" x="78"/>
+        <item m="1" x="138"/>
+        <item m="1" x="56"/>
+        <item m="1" x="117"/>
+        <item m="1" x="35"/>
+        <item m="1" x="96"/>
+        <item m="1" x="14"/>
+        <item m="1" x="73"/>
+        <item m="1" x="133"/>
+        <item m="1" x="51"/>
+        <item m="1" x="112"/>
+        <item m="1" x="30"/>
+        <item m="1" x="90"/>
+        <item m="1" x="8"/>
+        <item m="1" x="68"/>
+        <item m="1" x="128"/>
+        <item m="1" x="46"/>
+        <item m="1" x="107"/>
+        <item m="1" x="25"/>
+        <item m="1" x="84"/>
+        <item m="1" x="2"/>
+        <item m="1" x="61"/>
+        <item m="1" x="95"/>
+        <item m="1" x="13"/>
+        <item m="1" x="72"/>
+        <item m="1" x="132"/>
+        <item m="1" x="50"/>
+        <item m="1" x="111"/>
+        <item m="1" x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="6"/>
+        <item m="1" x="65"/>
+        <item m="1" x="125"/>
+        <item m="1" x="43"/>
+        <item m="1" x="104"/>
+        <item m="1" x="22"/>
+        <item m="1" x="81"/>
+        <item m="1" x="141"/>
+        <item m="1" x="59"/>
+        <item m="1" x="120"/>
+        <item m="1" x="38"/>
+        <item m="1" x="99"/>
+        <item m="1" x="17"/>
+        <item m="1" x="76"/>
+        <item m="1" x="136"/>
+        <item m="1" x="54"/>
+        <item m="1" x="115"/>
+        <item m="1" x="33"/>
+        <item m="1" x="93"/>
+        <item m="1" x="11"/>
+        <item m="1" x="79"/>
+        <item m="1" x="139"/>
+        <item m="1" x="57"/>
+        <item m="1" x="118"/>
+        <item m="1" x="36"/>
+        <item m="1" x="97"/>
+        <item m="1" x="15"/>
+        <item m="1" x="74"/>
+        <item m="1" x="134"/>
+        <item m="1" x="52"/>
+        <item m="1" x="113"/>
+        <item m="1" x="31"/>
+        <item m="1" x="91"/>
+        <item m="1" x="9"/>
+        <item x="0"/>
+        <item m="1" x="69"/>
+        <item m="1" x="129"/>
+        <item m="1" x="47"/>
+        <item m="1" x="108"/>
+        <item m="1" x="26"/>
+        <item m="1" x="85"/>
+        <item m="1" x="3"/>
+        <item m="1" x="62"/>
+        <item m="1" x="122"/>
+        <item m="1" x="40"/>
+        <item m="1" x="101"/>
+        <item m="1" x="19"/>
+        <item m="1" x="77"/>
+        <item m="1" x="137"/>
+        <item m="1" x="55"/>
+        <item m="1" x="116"/>
+        <item m="1" x="34"/>
+        <item m="1" x="66"/>
+        <item m="1" x="126"/>
+        <item m="1" x="44"/>
+        <item m="1" x="105"/>
+        <item m="1" x="23"/>
+        <item m="1" x="82"/>
+        <item m="1" x="142"/>
+        <item m="1" x="60"/>
+        <item m="1" x="121"/>
+        <item m="1" x="39"/>
+        <item m="1" x="100"/>
+        <item m="1" x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A6:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" m="1" x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="206">
+        <item m="1" x="170"/>
+        <item m="1" x="185"/>
+        <item m="1" x="200"/>
+        <item m="1" x="180"/>
+        <item m="1" x="195"/>
+        <item m="1" x="175"/>
+        <item m="1" x="190"/>
+        <item m="1" x="204"/>
+        <item m="1" x="184"/>
+        <item m="1" x="199"/>
+        <item m="1" x="179"/>
+        <item m="1" x="194"/>
+        <item m="1" x="174"/>
+        <item m="1" x="188"/>
+        <item m="1" x="202"/>
+        <item m="1" x="182"/>
+        <item m="1" x="197"/>
+        <item m="1" x="177"/>
+        <item m="1" x="192"/>
+        <item m="1" x="172"/>
+        <item m="1" x="189"/>
+        <item m="1" x="203"/>
+        <item m="1" x="183"/>
+        <item m="1" x="198"/>
+        <item m="1" x="178"/>
+        <item m="1" x="193"/>
+        <item m="1" x="173"/>
+        <item m="1" x="187"/>
+        <item m="1" x="201"/>
+        <item m="1" x="181"/>
+        <item m="1" x="196"/>
+        <item m="1" x="176"/>
+        <item m="1" x="191"/>
+        <item m="1" x="171"/>
+        <item m="1" x="186"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="169"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="144"/>
+        <item x="143"/>
+        <item x="142"/>
+        <item x="141"/>
+        <item x="140"/>
+        <item x="139"/>
+        <item x="138"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="156"/>
+        <item x="155"/>
+        <item x="154"/>
+        <item x="160"/>
+        <item x="159"/>
+        <item x="158"/>
+        <item x="157"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
+    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
+    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
+    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R6:S8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="11">
@@ -20793,16 +20361,16 @@
     <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="42">
+    <format dxfId="26">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="24">
       <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="7" count="1">
@@ -20811,10 +20379,442 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A16:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="9">
+        <item h="1" m="1" x="7"/>
+        <item h="1" x="0"/>
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="206">
+        <item m="1" x="170"/>
+        <item m="1" x="185"/>
+        <item m="1" x="200"/>
+        <item m="1" x="180"/>
+        <item m="1" x="195"/>
+        <item m="1" x="175"/>
+        <item m="1" x="190"/>
+        <item m="1" x="204"/>
+        <item m="1" x="184"/>
+        <item m="1" x="199"/>
+        <item m="1" x="179"/>
+        <item m="1" x="194"/>
+        <item m="1" x="174"/>
+        <item m="1" x="188"/>
+        <item m="1" x="202"/>
+        <item m="1" x="182"/>
+        <item m="1" x="197"/>
+        <item m="1" x="177"/>
+        <item m="1" x="192"/>
+        <item m="1" x="172"/>
+        <item m="1" x="189"/>
+        <item m="1" x="203"/>
+        <item m="1" x="183"/>
+        <item m="1" x="198"/>
+        <item m="1" x="178"/>
+        <item m="1" x="193"/>
+        <item m="1" x="173"/>
+        <item m="1" x="187"/>
+        <item m="1" x="201"/>
+        <item m="1" x="181"/>
+        <item m="1" x="196"/>
+        <item m="1" x="176"/>
+        <item m="1" x="191"/>
+        <item m="1" x="171"/>
+        <item m="1" x="186"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="169"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="61"/>
+        <item x="73"/>
+        <item x="72"/>
+        <item x="71"/>
+        <item x="70"/>
+        <item x="69"/>
+        <item x="68"/>
+        <item x="67"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="64"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="144"/>
+        <item x="143"/>
+        <item x="142"/>
+        <item x="141"/>
+        <item x="140"/>
+        <item x="139"/>
+        <item x="138"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="156"/>
+        <item x="155"/>
+        <item x="154"/>
+        <item x="160"/>
+        <item x="159"/>
+        <item x="158"/>
+        <item x="157"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="4">
+    <dataField name="浏览量" fld="3" baseField="0" baseItem="1"/>
+    <dataField name="访客数" fld="4" baseField="0" baseItem="1"/>
+    <dataField name="平均停留时长" fld="5" subtotal="average" baseField="0" baseItem="2"/>
+    <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O6:P8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="19">
+        <item x="17"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="2">
+    <i/>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
     <format dxfId="37">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -21137,10 +21137,10 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="33" customHeight="1">
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="168"/>
+      <c r="C2" s="170"/>
       <c r="D2" s="144" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -21161,7 +21161,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="172" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="109" t="s">
@@ -21188,7 +21188,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B4" s="168"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="109" t="s">
         <v>6</v>
       </c>
@@ -21213,7 +21213,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B5" s="168"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="109" t="s">
         <v>7</v>
       </c>
@@ -21238,7 +21238,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B6" s="168"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="109" t="s">
         <v>8</v>
       </c>
@@ -21264,7 +21264,7 @@
       <c r="K6" s="106"/>
     </row>
     <row r="7" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="172" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="109" t="s">
@@ -21289,7 +21289,7 @@
       <c r="H7" s="151"/>
     </row>
     <row r="8" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B8" s="168"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="109" t="s">
         <v>11</v>
       </c>
@@ -21314,7 +21314,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="172" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="108" t="s">
@@ -21337,7 +21337,7 @@
       <c r="H9" s="151"/>
     </row>
     <row r="10" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B10" s="168"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="109" t="s">
         <v>14</v>
       </c>
@@ -21362,7 +21362,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B11" s="168"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="108" t="s">
         <v>16</v>
       </c>
@@ -21383,7 +21383,7 @@
       <c r="H11" s="151"/>
     </row>
     <row r="12" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B12" s="168"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="109" t="s">
         <v>17</v>
       </c>
@@ -21408,7 +21408,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B13" s="168"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="108" t="s">
         <v>18</v>
       </c>
@@ -21429,7 +21429,7 @@
       <c r="H13" s="151"/>
     </row>
     <row r="14" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B14" s="168"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="108" t="s">
         <v>19</v>
       </c>
@@ -21450,7 +21450,7 @@
       <c r="H14" s="151"/>
     </row>
     <row r="15" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B15" s="168"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="109" t="s">
         <v>20</v>
       </c>
@@ -21473,7 +21473,7 @@
       <c r="H15" s="151"/>
     </row>
     <row r="16" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="172" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="109" t="s">
@@ -21500,7 +21500,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="29.1" customHeight="1">
-      <c r="B17" s="168"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="109" t="s">
         <v>23</v>
       </c>
@@ -21525,15 +21525,15 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="113.1" customHeight="1">
-      <c r="B18" s="167" t="s">
+      <c r="B18" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
     </row>
     <row r="19" spans="2:8" ht="19.5" customHeight="1"/>
     <row r="20" spans="2:8" ht="19.5" customHeight="1"/>
@@ -21567,7 +21567,7 @@
   <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView topLeftCell="A160" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F182" sqref="F182"/>
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -25607,7 +25607,7 @@
         <v>2018</v>
       </c>
       <c r="B162" s="27">
-        <f t="shared" ref="B162:B193" si="11">MONTH(C162)</f>
+        <f t="shared" ref="B162:B170" si="11">MONTH(C162)</f>
         <v>8</v>
       </c>
       <c r="C162" s="23">
@@ -33657,8 +33657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -34042,7 +34042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -34124,9 +34124,9 @@
       <c r="J2" s="93"/>
       <c r="K2" s="91"/>
       <c r="L2" s="91"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="192"/>
-      <c r="O2" s="192"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="91"/>
@@ -34141,9 +34141,9 @@
       <c r="J3" s="93"/>
       <c r="K3" s="91"/>
       <c r="L3" s="91"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="192"/>
-      <c r="O3" s="192"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="91"/>
@@ -34158,9 +34158,9 @@
       <c r="J4" s="93"/>
       <c r="K4" s="91"/>
       <c r="L4" s="91"/>
-      <c r="M4" s="192"/>
-      <c r="N4" s="192"/>
-      <c r="O4" s="192"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="91"/>
@@ -34175,9 +34175,9 @@
       <c r="J5" s="93"/>
       <c r="K5" s="91"/>
       <c r="L5" s="91"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="192"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="91"/>
@@ -34192,9 +34192,9 @@
       <c r="J6" s="93"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
-      <c r="M6" s="192"/>
-      <c r="N6" s="192"/>
-      <c r="O6" s="192"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="91"/>
@@ -34209,9 +34209,9 @@
       <c r="J7" s="93"/>
       <c r="K7" s="91"/>
       <c r="L7" s="91"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
+      <c r="O7" s="168"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="91"/>
@@ -34226,9 +34226,9 @@
       <c r="J8" s="93"/>
       <c r="K8" s="91"/>
       <c r="L8" s="91"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="168"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="91"/>
@@ -34243,9 +34243,9 @@
       <c r="J9" s="93"/>
       <c r="K9" s="91"/>
       <c r="L9" s="91"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="91"/>
@@ -34260,9 +34260,9 @@
       <c r="J10" s="93"/>
       <c r="K10" s="91"/>
       <c r="L10" s="91"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="91"/>
@@ -34277,9 +34277,9 @@
       <c r="J11" s="93"/>
       <c r="K11" s="91"/>
       <c r="L11" s="91"/>
-      <c r="M11" s="193"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="193"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="91"/>
@@ -34294,9 +34294,9 @@
       <c r="J12" s="93"/>
       <c r="K12" s="91"/>
       <c r="L12" s="91"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="91"/>
@@ -34311,9 +34311,9 @@
       <c r="J13" s="93"/>
       <c r="K13" s="91"/>
       <c r="L13" s="91"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="91"/>
@@ -34328,9 +34328,9 @@
       <c r="J14" s="93"/>
       <c r="K14" s="91"/>
       <c r="L14" s="91"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="91"/>
@@ -34345,9 +34345,9 @@
       <c r="J15" s="93"/>
       <c r="K15" s="91"/>
       <c r="L15" s="91"/>
-      <c r="M15" s="193"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="91"/>
@@ -34362,9 +34362,9 @@
       <c r="J16" s="93"/>
       <c r="K16" s="91"/>
       <c r="L16" s="91"/>
-      <c r="M16" s="193"/>
-      <c r="N16" s="193"/>
-      <c r="O16" s="193"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="91"/>
@@ -34379,9 +34379,9 @@
       <c r="J17" s="93"/>
       <c r="K17" s="91"/>
       <c r="L17" s="91"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
+      <c r="M17" s="168"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="168"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -36722,27 +36722,27 @@
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="175" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
-      <c r="F3" s="175" t="s">
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="175" t="s">
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
     </row>
     <row r="4" spans="2:11" ht="24" customHeight="1" thickBot="1">
-      <c r="B4" s="172"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="81" t="str">
         <f>透视表!J29</f>
         <v>8月</v>
@@ -36918,32 +36918,32 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="33.950000000000003" customHeight="1">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="178" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
     </row>
     <row r="29" spans="2:11" ht="29.1" customHeight="1">
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
+      <c r="K29" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -36995,7 +36995,7 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="179" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -37030,7 +37030,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B3" s="172"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="38" t="s">
         <v>10</v>
       </c>
@@ -37061,7 +37061,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B4" s="172"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="81" t="s">
         <v>13</v>
       </c>
@@ -37092,7 +37092,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B5" s="172"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
@@ -37123,7 +37123,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="180" t="s">
         <v>45</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -37154,7 +37154,7 @@
       <c r="K6" s="135"/>
     </row>
     <row r="7" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B7" s="172"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="81" t="s">
         <v>48</v>
       </c>
@@ -37185,7 +37185,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B8" s="172"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="81" t="s">
         <v>50</v>
       </c>
@@ -37216,7 +37216,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B9" s="178" t="s">
+      <c r="B9" s="180" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -37249,7 +37249,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B10" s="172"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="81" t="s">
         <v>54</v>
       </c>
@@ -37278,7 +37278,7 @@
       <c r="K10" s="135"/>
     </row>
     <row r="11" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B11" s="172"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="81" t="s">
         <v>56</v>
       </c>
@@ -37342,13 +37342,13 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B13" s="176" t="s">
+      <c r="B13" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
       <c r="H13" s="135" t="s">
         <v>61</v>
       </c>
@@ -37364,11 +37364,11 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="24.95" customHeight="1">
-      <c r="B14" s="172"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
       <c r="H14" s="135" t="s">
         <v>62</v>
       </c>
@@ -37382,11 +37382,11 @@
       <c r="K14" s="135"/>
     </row>
     <row r="15" spans="2:11" ht="44.1" customHeight="1">
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
+      <c r="B15" s="174"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
       <c r="H15" s="135" t="s">
         <v>63</v>
       </c>
@@ -37492,22 +37492,22 @@
       </c>
     </row>
     <row r="2" spans="2:8" ht="17.25" customHeight="1">
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="181" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="181" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="183" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="180"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="70" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -37816,15 +37816,15 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="89.1" customHeight="1">
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="182"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
     </row>
     <row r="19" spans="2:8" ht="20.45" customHeight="1"/>
     <row r="20" spans="2:8" ht="20.45" customHeight="1"/>
@@ -37877,22 +37877,22 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="184" t="s">
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="182"/>
-      <c r="H2" s="182"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
     </row>
     <row r="3" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B3" s="180"/>
+      <c r="B3" s="182"/>
       <c r="C3" s="76" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -37969,15 +37969,15 @@
       <c r="H5" s="91"/>
     </row>
     <row r="6" spans="2:8" ht="60" customHeight="1">
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="182"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="182"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
     </row>
     <row r="7" spans="2:8" ht="22.5" customHeight="1"/>
     <row r="8" spans="2:8" ht="22.5" customHeight="1"/>
@@ -38049,27 +38049,27 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="189" t="s">
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="191" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
       <c r="M2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B3" s="168"/>
+      <c r="B3" s="170"/>
       <c r="C3" s="19" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -38169,28 +38169,28 @@
       <c r="M5" s="25"/>
     </row>
     <row r="6" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="188" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="190" t="s">
+      <c r="C6" s="192" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="189" t="s">
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
     </row>
     <row r="7" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B7" s="168"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="19" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -38305,30 +38305,30 @@
       <c r="N9" s="25"/>
     </row>
     <row r="10" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="189" t="s">
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="191" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="189" t="s">
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
     </row>
     <row r="11" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B11" s="168"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="19" t="str">
         <f>透视表!$J$29</f>
         <v>8月</v>
@@ -38434,29 +38434,29 @@
       <c r="L13" s="25"/>
     </row>
     <row r="14" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="188" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="187" t="s">
+      <c r="D14" s="189" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="185" t="s">
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
     </row>
     <row r="15" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B15" s="168"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="49" t="str">
         <f>"截止"&amp;透视表!J29</f>
         <v>截止8月</v>
@@ -38476,12 +38476,12 @@
         <f>透视表!$J$28</f>
         <v>环比</v>
       </c>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
     </row>
     <row r="16" spans="2:14" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="B16" s="41"/>
@@ -38502,12 +38502,12 @@
         <f>IFERROR(C16/#REF!,"-")</f>
         <v>-</v>
       </c>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
     </row>
     <row r="17" ht="34.700000000000003" customHeight="1"/>
   </sheetData>
